--- a/recognized_sets/recognized_hi.xlsx
+++ b/recognized_sets/recognized_hi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="10">
   <si>
     <t>text</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t>привет спасибо</t>
+  </si>
+  <si>
+    <t>холодно</t>
+  </si>
+  <si>
+    <t>дороу</t>
   </si>
   <si>
     <t>Приветствие</t>
@@ -395,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,7 +423,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -428,7 +434,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -439,7 +445,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -450,7 +456,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -461,7 +467,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -472,7 +478,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -483,7 +489,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -494,7 +500,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -505,7 +511,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -516,7 +522,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -527,7 +533,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -538,7 +544,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -549,7 +555,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -560,7 +566,7 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -571,7 +577,7 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -582,9 +588,64 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>6</v>
       </c>
-      <c r="C17">
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22">
         <v>1</v>
       </c>
     </row>

--- a/recognized_sets/recognized_hi.xlsx
+++ b/recognized_sets/recognized_hi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="11">
   <si>
     <t>text</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>дороу</t>
+  </si>
+  <si>
+    <t>мис привет</t>
   </si>
   <si>
     <t>Приветствие</t>
@@ -401,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,7 +426,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -434,7 +437,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -445,7 +448,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -456,7 +459,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -467,7 +470,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -478,7 +481,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -489,7 +492,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -500,7 +503,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -511,7 +514,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -522,7 +525,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -533,7 +536,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -544,7 +547,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -555,7 +558,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -566,7 +569,7 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -577,7 +580,7 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -588,7 +591,7 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -599,7 +602,7 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -610,7 +613,7 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -621,7 +624,7 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -632,7 +635,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -643,9 +646,42 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>8</v>
       </c>
-      <c r="C22">
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25">
         <v>1</v>
       </c>
     </row>

--- a/recognized_sets/recognized_hi.xlsx
+++ b/recognized_sets/recognized_hi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="11">
   <si>
     <t>text</t>
   </si>
@@ -404,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -685,6 +685,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/recognized_sets/recognized_hi.xlsx
+++ b/recognized_sets/recognized_hi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="12">
   <si>
     <t>text</t>
   </si>
@@ -31,16 +31,19 @@
     <t>дар</t>
   </si>
   <si>
-    <t>привет спасибо</t>
-  </si>
-  <si>
     <t>холодно</t>
   </si>
   <si>
     <t>дороу</t>
   </si>
   <si>
-    <t>мис привет</t>
+    <t xml:space="preserve"> привет</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> сказать привет</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> дар</t>
   </si>
   <si>
     <t>Приветствие</t>
@@ -404,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,7 +429,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -437,7 +440,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -448,7 +451,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -459,7 +462,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -470,7 +473,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -481,7 +484,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -492,7 +495,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -503,7 +506,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -514,7 +517,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -525,7 +528,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -536,7 +539,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -547,7 +550,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -558,7 +561,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -569,7 +572,7 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -580,7 +583,7 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -591,10 +594,10 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -602,7 +605,7 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -610,10 +613,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -624,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -635,7 +638,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -643,10 +646,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -654,10 +657,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -665,10 +668,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -676,10 +679,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -687,12 +690,133 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
         <v>8</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
         <v>9</v>
       </c>
-      <c r="C26">
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37">
         <v>1</v>
       </c>
     </row>

--- a/recognized_sets/recognized_hi.xlsx
+++ b/recognized_sets/recognized_hi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="12">
   <si>
     <t>text</t>
   </si>
@@ -407,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -770,10 +770,10 @@
         <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -817,6 +817,83 @@
         <v>10</v>
       </c>
       <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44">
         <v>1</v>
       </c>
     </row>

--- a/recognized_sets/recognized_hi.xlsx
+++ b/recognized_sets/recognized_hi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="12">
   <si>
     <t>text</t>
   </si>
@@ -407,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -897,6 +897,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
